--- a/frontend/public/Task.xlsx
+++ b/frontend/public/Task.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
-  <si>
-    <t>Checklist Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>Task Name</t>
   </si>
@@ -43,16 +40,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>dsds</t>
   </si>
 </sst>
 </file>
@@ -433,236 +421,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>44</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>55</v>
-      </c>
-      <c r="E8">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>55</v>
-      </c>
-      <c r="E12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>55</v>
-      </c>
-      <c r="E16">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>44</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
+      <c r="C17">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
